--- a/output/GARDE_19212817000151.xlsx
+++ b/output/GARDE_19212817000151.xlsx
@@ -1318,10 +1318,10 @@
         <v>44165</v>
       </c>
       <c r="B85">
-        <v>1.1656728</v>
+        <v>1.1657188</v>
       </c>
       <c r="C85">
-        <v>0.01130063384414681</v>
+        <v>0.01132211438781772</v>
       </c>
     </row>
   </sheetData>

--- a/output/GARDE_19212817000151.xlsx
+++ b/output/GARDE_19212817000151.xlsx
@@ -14,12 +14,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>GARDE DARTAGNAN FUNDO DE INVESTIMENTO EM COTAS DE FUNDOS DE INVESTIMENTO MULTIMERCADO</t>
-  </si>
-  <si>
-    <t>mensal</t>
   </si>
   <si>
     <t>d</t>
@@ -386,942 +383,690 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C85"/>
+  <dimension ref="A1:B85"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
+    </row>
+    <row r="2" spans="1:2">
       <c r="A2" s="2">
         <v>41639</v>
       </c>
       <c r="B2">
-        <v>0.006127100000000052</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
       <c r="A3" s="2">
         <v>41670</v>
       </c>
       <c r="B3">
-        <v>0.01264580000000004</v>
-      </c>
-      <c r="C3">
         <v>0.006479002503759101</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:2">
       <c r="A4" s="2">
         <v>41698</v>
       </c>
       <c r="B4">
-        <v>0.0197312999999999</v>
-      </c>
-      <c r="C4">
         <v>0.006997017120892401</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:2">
       <c r="A5" s="2">
         <v>41729</v>
       </c>
       <c r="B5">
-        <v>0.0151368999999999</v>
-      </c>
-      <c r="C5">
         <v>-0.00450550061570143</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:2">
       <c r="A6" s="2">
         <v>41759</v>
       </c>
       <c r="B6">
-        <v>0.02416390000000002</v>
-      </c>
-      <c r="C6">
         <v>0.0088923966806842</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:2">
       <c r="A7" s="2">
         <v>41790</v>
       </c>
       <c r="B7">
-        <v>0.03053269999999997</v>
-      </c>
-      <c r="C7">
         <v>0.006218535919885415</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:2">
       <c r="A8" s="2">
         <v>41820</v>
       </c>
       <c r="B8">
-        <v>0.04044910000000002</v>
-      </c>
-      <c r="C8">
         <v>0.009622596158278096</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:2">
       <c r="A9" s="2">
         <v>41851</v>
       </c>
       <c r="B9">
-        <v>0.05287860000000011</v>
-      </c>
-      <c r="C9">
         <v>0.01194628358081151</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:2">
       <c r="A10" s="2">
         <v>41882</v>
       </c>
       <c r="B10">
-        <v>0.05848720000000007</v>
-      </c>
-      <c r="C10">
         <v>0.005326919931699647</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:2">
       <c r="A11" s="2">
         <v>41912</v>
       </c>
       <c r="B11">
-        <v>0.0715380000000001</v>
-      </c>
-      <c r="C11">
         <v>0.01232967200737045</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:2">
       <c r="A12" s="2">
         <v>41943</v>
       </c>
       <c r="B12">
-        <v>0.08014159999999992</v>
-      </c>
-      <c r="C12">
         <v>0.00802920661703066</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:2">
       <c r="A13" s="2">
         <v>41973</v>
       </c>
       <c r="B13">
-        <v>0.1087064</v>
-      </c>
-      <c r="C13">
         <v>0.02644542160027918</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:2">
       <c r="A14" s="2">
         <v>42004</v>
       </c>
       <c r="B14">
-        <v>0.1254633000000001</v>
-      </c>
-      <c r="C14">
         <v>0.01511392015054658</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:2">
       <c r="A15" s="2">
         <v>42035</v>
       </c>
       <c r="B15">
-        <v>0.1509735999999999</v>
-      </c>
-      <c r="C15">
         <v>0.02266648765890444</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:2">
       <c r="A16" s="2">
         <v>42063</v>
       </c>
       <c r="B16">
-        <v>0.1769368</v>
-      </c>
-      <c r="C16">
         <v>0.02255759819339054</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:2">
       <c r="A17" s="2">
         <v>42094</v>
       </c>
       <c r="B17">
-        <v>0.2152803999999999</v>
-      </c>
-      <c r="C17">
         <v>0.03257914953462238</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:2">
       <c r="A18" s="2">
         <v>42124</v>
       </c>
       <c r="B18">
-        <v>0.2158555</v>
-      </c>
-      <c r="C18">
         <v>0.0004732241217746402</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:2">
       <c r="A19" s="2">
         <v>42155</v>
       </c>
       <c r="B19">
-        <v>0.2402067999999999</v>
-      </c>
-      <c r="C19">
         <v>0.02002812011789223</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:2">
       <c r="A20" s="2">
         <v>42185</v>
       </c>
       <c r="B20">
-        <v>0.2590592</v>
-      </c>
-      <c r="C20">
         <v>0.01520101325037082</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:2">
       <c r="A21" s="2">
         <v>42216</v>
       </c>
       <c r="B21">
-        <v>0.2855618</v>
-      </c>
-      <c r="C21">
         <v>0.02104952650359881</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:2">
       <c r="A22" s="2">
         <v>42247</v>
       </c>
       <c r="B22">
-        <v>0.2962745</v>
-      </c>
-      <c r="C22">
         <v>0.008333088304272929</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:2">
       <c r="A23" s="2">
         <v>42277</v>
       </c>
       <c r="B23">
-        <v>0.3092484</v>
-      </c>
-      <c r="C23">
         <v>0.01000860543040849</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:2">
       <c r="A24" s="2">
         <v>42308</v>
       </c>
       <c r="B24">
-        <v>0.3456766</v>
-      </c>
-      <c r="C24">
         <v>0.02782374987053648</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:2">
       <c r="A25" s="2">
         <v>42338</v>
       </c>
       <c r="B25">
-        <v>0.3638809999999999</v>
-      </c>
-      <c r="C25">
         <v>0.01352806461820011</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:2">
       <c r="A26" s="2">
         <v>42369</v>
       </c>
       <c r="B26">
-        <v>0.3926046999999999</v>
-      </c>
-      <c r="C26">
         <v>0.02106026845450604</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:2">
       <c r="A27" s="2">
         <v>42400</v>
       </c>
       <c r="B27">
-        <v>0.4345608999999999</v>
-      </c>
-      <c r="C27">
         <v>0.03012786040432003</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
+    <row r="28" spans="1:2">
       <c r="A28" s="2">
         <v>42429</v>
       </c>
       <c r="B28">
-        <v>0.4451434000000001</v>
-      </c>
-      <c r="C28">
         <v>0.007376821715969095</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" spans="1:2">
       <c r="A29" s="2">
         <v>42460</v>
       </c>
       <c r="B29">
-        <v>0.4259123</v>
-      </c>
-      <c r="C29">
         <v>-0.01330739911347212</v>
       </c>
     </row>
-    <row r="30" spans="1:3">
+    <row r="30" spans="1:2">
       <c r="A30" s="2">
         <v>42490</v>
       </c>
       <c r="B30">
-        <v>0.4890234</v>
-      </c>
-      <c r="C30">
         <v>0.04426015541067985</v>
       </c>
     </row>
-    <row r="31" spans="1:3">
+    <row r="31" spans="1:2">
       <c r="A31" s="2">
         <v>42521</v>
       </c>
       <c r="B31">
-        <v>0.5052272</v>
-      </c>
-      <c r="C31">
         <v>0.01088216612311133</v>
       </c>
     </row>
-    <row r="32" spans="1:3">
+    <row r="32" spans="1:2">
       <c r="A32" s="2">
         <v>42551</v>
       </c>
       <c r="B32">
-        <v>0.5219362999999999</v>
-      </c>
-      <c r="C32">
         <v>0.01110071622410214</v>
       </c>
     </row>
-    <row r="33" spans="1:3">
+    <row r="33" spans="1:2">
       <c r="A33" s="2">
         <v>42582</v>
       </c>
       <c r="B33">
-        <v>0.5393435</v>
-      </c>
-      <c r="C33">
         <v>0.01143753519776092</v>
       </c>
     </row>
-    <row r="34" spans="1:3">
+    <row r="34" spans="1:2">
       <c r="A34" s="2">
         <v>42613</v>
       </c>
       <c r="B34">
-        <v>0.5607735</v>
-      </c>
-      <c r="C34">
         <v>0.01392151914111439</v>
       </c>
     </row>
-    <row r="35" spans="1:3">
+    <row r="35" spans="1:2">
       <c r="A35" s="2">
         <v>42643</v>
       </c>
       <c r="B35">
-        <v>0.5758137000000001</v>
-      </c>
-      <c r="C35">
         <v>0.009636375809814801</v>
       </c>
     </row>
-    <row r="36" spans="1:3">
+    <row r="36" spans="1:2">
       <c r="A36" s="2">
         <v>42674</v>
       </c>
       <c r="B36">
-        <v>0.5974200999999999</v>
-      </c>
-      <c r="C36">
         <v>0.013711265487792</v>
       </c>
     </row>
-    <row r="37" spans="1:3">
+    <row r="37" spans="1:2">
       <c r="A37" s="2">
         <v>42704</v>
       </c>
       <c r="B37">
-        <v>0.6089718</v>
-      </c>
-      <c r="C37">
         <v>0.007231472797919691</v>
       </c>
     </row>
-    <row r="38" spans="1:3">
+    <row r="38" spans="1:2">
       <c r="A38" s="2">
         <v>42735</v>
       </c>
       <c r="B38">
-        <v>0.6441002</v>
-      </c>
-      <c r="C38">
         <v>0.02183282516200724</v>
       </c>
     </row>
-    <row r="39" spans="1:3">
+    <row r="39" spans="1:2">
       <c r="A39" s="2">
         <v>42766</v>
       </c>
       <c r="B39">
-        <v>0.6737749</v>
-      </c>
-      <c r="C39">
         <v>0.0180492040570277</v>
       </c>
     </row>
-    <row r="40" spans="1:3">
+    <row r="40" spans="1:2">
       <c r="A40" s="2">
         <v>42794</v>
       </c>
       <c r="B40">
-        <v>0.6962164</v>
-      </c>
-      <c r="C40">
         <v>0.01340771689191889</v>
       </c>
     </row>
-    <row r="41" spans="1:3">
+    <row r="41" spans="1:2">
       <c r="A41" s="2">
         <v>42825</v>
       </c>
       <c r="B41">
-        <v>0.7186106000000001</v>
-      </c>
-      <c r="C41">
         <v>0.01320244280152005</v>
       </c>
     </row>
-    <row r="42" spans="1:3">
+    <row r="42" spans="1:2">
       <c r="A42" s="2">
         <v>42855</v>
       </c>
       <c r="B42">
-        <v>0.7308505000000001</v>
-      </c>
-      <c r="C42">
         <v>0.007121973994574482</v>
       </c>
     </row>
-    <row r="43" spans="1:3">
+    <row r="43" spans="1:2">
       <c r="A43" s="2">
         <v>42886</v>
       </c>
       <c r="B43">
-        <v>0.7495486</v>
-      </c>
-      <c r="C43">
         <v>0.01080283941334037</v>
       </c>
     </row>
-    <row r="44" spans="1:3">
+    <row r="44" spans="1:2">
       <c r="A44" s="2">
         <v>42916</v>
       </c>
       <c r="B44">
-        <v>0.7771933</v>
-      </c>
-      <c r="C44">
         <v>0.01580104719583098</v>
       </c>
     </row>
-    <row r="45" spans="1:3">
+    <row r="45" spans="1:2">
       <c r="A45" s="2">
         <v>42947</v>
       </c>
       <c r="B45">
-        <v>0.8101684</v>
-      </c>
-      <c r="C45">
         <v>0.01855459392065018</v>
       </c>
     </row>
-    <row r="46" spans="1:3">
+    <row r="46" spans="1:2">
       <c r="A46" s="2">
         <v>42978</v>
       </c>
       <c r="B46">
-        <v>0.8371846999999999</v>
-      </c>
-      <c r="C46">
         <v>0.01492474401829136</v>
       </c>
     </row>
-    <row r="47" spans="1:3">
+    <row r="47" spans="1:2">
       <c r="A47" s="2">
         <v>43008</v>
       </c>
       <c r="B47">
-        <v>0.8688899999999999</v>
-      </c>
-      <c r="C47">
         <v>0.01725754628807863</v>
       </c>
     </row>
-    <row r="48" spans="1:3">
+    <row r="48" spans="1:2">
       <c r="A48" s="2">
         <v>43039</v>
       </c>
       <c r="B48">
-        <v>0.8571956000000001</v>
-      </c>
-      <c r="C48">
         <v>-0.006257404127583688</v>
       </c>
     </row>
-    <row r="49" spans="1:3">
+    <row r="49" spans="1:2">
       <c r="A49" s="2">
         <v>43069</v>
       </c>
       <c r="B49">
-        <v>0.860093</v>
-      </c>
-      <c r="C49">
         <v>0.001560094154864355</v>
       </c>
     </row>
-    <row r="50" spans="1:3">
+    <row r="50" spans="1:2">
       <c r="A50" s="2">
         <v>43100</v>
       </c>
       <c r="B50">
-        <v>0.8847972</v>
-      </c>
-      <c r="C50">
         <v>0.01328116389879419</v>
       </c>
     </row>
-    <row r="51" spans="1:3">
+    <row r="51" spans="1:2">
       <c r="A51" s="2">
         <v>43131</v>
       </c>
       <c r="B51">
-        <v>0.9097898</v>
-      </c>
-      <c r="C51">
         <v>0.01326010034395209</v>
       </c>
     </row>
-    <row r="52" spans="1:3">
+    <row r="52" spans="1:2">
       <c r="A52" s="2">
         <v>43159</v>
       </c>
       <c r="B52">
-        <v>0.9235632</v>
-      </c>
-      <c r="C52">
         <v>0.007211997885840704</v>
       </c>
     </row>
-    <row r="53" spans="1:3">
+    <row r="53" spans="1:2">
       <c r="A53" s="2">
         <v>43190</v>
       </c>
       <c r="B53">
-        <v>0.9382269999999999</v>
-      </c>
-      <c r="C53">
         <v>0.007623248354927892</v>
       </c>
     </row>
-    <row r="54" spans="1:3">
+    <row r="54" spans="1:2">
       <c r="A54" s="2">
         <v>43220</v>
       </c>
       <c r="B54">
-        <v>0.9231374000000001</v>
-      </c>
-      <c r="C54">
         <v>-0.00778525941491881</v>
       </c>
     </row>
-    <row r="55" spans="1:3">
+    <row r="55" spans="1:2">
       <c r="A55" s="2">
         <v>43251</v>
       </c>
       <c r="B55">
-        <v>0.8659247999999999</v>
-      </c>
-      <c r="C55">
         <v>-0.02974961643406249</v>
       </c>
     </row>
-    <row r="56" spans="1:3">
+    <row r="56" spans="1:2">
       <c r="A56" s="2">
         <v>43281</v>
       </c>
       <c r="B56">
-        <v>0.883186</v>
-      </c>
-      <c r="C56">
         <v>0.009250747940110049</v>
       </c>
     </row>
-    <row r="57" spans="1:3">
+    <row r="57" spans="1:2">
       <c r="A57" s="2">
         <v>43312</v>
       </c>
       <c r="B57">
-        <v>0.8853408</v>
-      </c>
-      <c r="C57">
         <v>0.001144231106221083</v>
       </c>
     </row>
-    <row r="58" spans="1:3">
+    <row r="58" spans="1:2">
       <c r="A58" s="2">
         <v>43343</v>
       </c>
       <c r="B58">
-        <v>0.8757912999999999</v>
-      </c>
-      <c r="C58">
         <v>-0.00506513199099079</v>
       </c>
     </row>
-    <row r="59" spans="1:3">
+    <row r="59" spans="1:2">
       <c r="A59" s="2">
         <v>43373</v>
       </c>
       <c r="B59">
-        <v>0.8877758</v>
-      </c>
-      <c r="C59">
         <v>0.006389036989349561</v>
       </c>
     </row>
-    <row r="60" spans="1:3">
+    <row r="60" spans="1:2">
       <c r="A60" s="2">
         <v>43404</v>
       </c>
       <c r="B60">
-        <v>0.9181877000000001</v>
-      </c>
-      <c r="C60">
         <v>0.01610991093327918</v>
       </c>
     </row>
-    <row r="61" spans="1:3">
+    <row r="61" spans="1:2">
       <c r="A61" s="2">
         <v>43434</v>
       </c>
       <c r="B61">
-        <v>0.8973770000000001</v>
-      </c>
-      <c r="C61">
         <v>-0.0108491468274976</v>
       </c>
     </row>
-    <row r="62" spans="1:3">
+    <row r="62" spans="1:2">
       <c r="A62" s="2">
         <v>43465</v>
       </c>
       <c r="B62">
-        <v>0.9184136000000001</v>
-      </c>
-      <c r="C62">
         <v>0.01108720090946602</v>
       </c>
     </row>
-    <row r="63" spans="1:3">
+    <row r="63" spans="1:2">
       <c r="A63" s="2">
         <v>43496</v>
       </c>
       <c r="B63">
-        <v>0.9854221999999999</v>
-      </c>
-      <c r="C63">
         <v>0.03492917272896734</v>
       </c>
     </row>
-    <row r="64" spans="1:3">
+    <row r="64" spans="1:2">
       <c r="A64" s="2">
         <v>43524</v>
       </c>
       <c r="B64">
-        <v>0.9828878999999999</v>
-      </c>
-      <c r="C64">
         <v>-0.001276453945160849</v>
       </c>
     </row>
-    <row r="65" spans="1:3">
+    <row r="65" spans="1:2">
       <c r="A65" s="2">
         <v>43555</v>
       </c>
       <c r="B65">
-        <v>0.9612191000000001</v>
-      </c>
-      <c r="C65">
         <v>-0.01092789965585039</v>
       </c>
     </row>
-    <row r="66" spans="1:3">
+    <row r="66" spans="1:2">
       <c r="A66" s="2">
         <v>43585</v>
       </c>
       <c r="B66">
-        <v>0.967784</v>
-      </c>
-      <c r="C66">
         <v>0.003347356753766073</v>
       </c>
     </row>
-    <row r="67" spans="1:3">
+    <row r="67" spans="1:2">
       <c r="A67" s="2">
         <v>43616</v>
       </c>
       <c r="B67">
-        <v>0.9758544</v>
-      </c>
-      <c r="C67">
         <v>0.004101263146768064</v>
       </c>
     </row>
-    <row r="68" spans="1:3">
+    <row r="68" spans="1:2">
       <c r="A68" s="2">
         <v>43646</v>
       </c>
       <c r="B68">
-        <v>1.017305</v>
-      </c>
-      <c r="C68">
         <v>0.02097857008087223</v>
       </c>
     </row>
-    <row r="69" spans="1:3">
+    <row r="69" spans="1:2">
       <c r="A69" s="2">
         <v>43677</v>
       </c>
       <c r="B69">
-        <v>1.0626216</v>
-      </c>
-      <c r="C69">
         <v>0.02246393083842069</v>
       </c>
     </row>
-    <row r="70" spans="1:3">
+    <row r="70" spans="1:2">
       <c r="A70" s="2">
         <v>43708</v>
       </c>
       <c r="B70">
-        <v>1.0392647</v>
-      </c>
-      <c r="C70">
         <v>-0.01132388994665823</v>
       </c>
     </row>
-    <row r="71" spans="1:3">
+    <row r="71" spans="1:2">
       <c r="A71" s="2">
         <v>43738</v>
       </c>
       <c r="B71">
-        <v>1.0506353</v>
-      </c>
-      <c r="C71">
         <v>0.00557583328932254</v>
       </c>
     </row>
-    <row r="72" spans="1:3">
+    <row r="72" spans="1:2">
       <c r="A72" s="2">
         <v>43769</v>
       </c>
       <c r="B72">
-        <v>1.0872607</v>
-      </c>
-      <c r="C72">
         <v>0.01786051376371001</v>
       </c>
     </row>
-    <row r="73" spans="1:3">
+    <row r="73" spans="1:2">
       <c r="A73" s="2">
         <v>43799</v>
       </c>
       <c r="B73">
-        <v>1.0630822</v>
-      </c>
-      <c r="C73">
         <v>-0.01158384288076697</v>
       </c>
     </row>
-    <row r="74" spans="1:3">
+    <row r="74" spans="1:2">
       <c r="A74" s="2">
         <v>43830</v>
       </c>
       <c r="B74">
-        <v>1.1298998</v>
-      </c>
-      <c r="C74">
         <v>0.03238726988192697</v>
       </c>
     </row>
-    <row r="75" spans="1:3">
+    <row r="75" spans="1:2">
       <c r="A75" s="2">
         <v>43861</v>
       </c>
       <c r="B75">
-        <v>1.1266357</v>
-      </c>
-      <c r="C75">
         <v>-0.001532513407438207</v>
       </c>
     </row>
-    <row r="76" spans="1:3">
+    <row r="76" spans="1:2">
       <c r="A76" s="2">
         <v>43890</v>
       </c>
       <c r="B76">
-        <v>1.1026849</v>
-      </c>
-      <c r="C76">
         <v>-0.0112622956531766</v>
       </c>
     </row>
-    <row r="77" spans="1:3">
+    <row r="77" spans="1:2">
       <c r="A77" s="2">
         <v>43921</v>
       </c>
       <c r="B77">
-        <v>1.0378766</v>
-      </c>
-      <c r="C77">
         <v>-0.03082168897489102</v>
       </c>
     </row>
-    <row r="78" spans="1:3">
+    <row r="78" spans="1:2">
       <c r="A78" s="2">
         <v>43951</v>
       </c>
       <c r="B78">
-        <v>1.0761637</v>
-      </c>
-      <c r="C78">
         <v>0.01878774210371703</v>
       </c>
     </row>
-    <row r="79" spans="1:3">
+    <row r="79" spans="1:2">
       <c r="A79" s="2">
         <v>43982</v>
       </c>
       <c r="B79">
-        <v>1.0989949</v>
-      </c>
-      <c r="C79">
         <v>0.01099682072275909</v>
       </c>
     </row>
-    <row r="80" spans="1:3">
+    <row r="80" spans="1:2">
       <c r="A80" s="2">
         <v>44012</v>
       </c>
       <c r="B80">
-        <v>1.1514011</v>
-      </c>
-      <c r="C80">
         <v>0.02496728315061647</v>
       </c>
     </row>
-    <row r="81" spans="1:3">
+    <row r="81" spans="1:2">
       <c r="A81" s="2">
         <v>44043</v>
       </c>
       <c r="B81">
-        <v>1.2077876</v>
-      </c>
-      <c r="C81">
         <v>0.02620919920511322</v>
       </c>
     </row>
-    <row r="82" spans="1:3">
+    <row r="82" spans="1:2">
       <c r="A82" s="2">
         <v>44074</v>
       </c>
       <c r="B82">
-        <v>1.1948115</v>
-      </c>
-      <c r="C82">
         <v>-0.005877422266525989</v>
       </c>
     </row>
-    <row r="83" spans="1:3">
+    <row r="83" spans="1:2">
       <c r="A83" s="2">
         <v>44104</v>
       </c>
       <c r="B83">
-        <v>1.1260022</v>
-      </c>
-      <c r="C83">
         <v>-0.03135089277598568</v>
       </c>
     </row>
-    <row r="84" spans="1:3">
+    <row r="84" spans="1:2">
       <c r="A84" s="2">
         <v>44135</v>
       </c>
       <c r="B84">
-        <v>1.1414728</v>
-      </c>
-      <c r="C84">
         <v>0.007276850419063452</v>
       </c>
     </row>
-    <row r="85" spans="1:3">
+    <row r="85" spans="1:2">
       <c r="A85" s="2">
         <v>44165</v>
       </c>
       <c r="B85">
-        <v>1.1657188</v>
-      </c>
-      <c r="C85">
-        <v>0.01132211438781772</v>
+        <v>0.008643023623741586</v>
       </c>
     </row>
   </sheetData>
